--- a/Aula/DecisionTree/xlsx/AulaDecisionTree-Exercise.xlsx
+++ b/Aula/DecisionTree/xlsx/AulaDecisionTree-Exercise.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flavio\Dev\python\Medicina\Aula\DecisionTree\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B513E70B-0CBB-4120-9D0F-5DC3A30B9EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA994990-4EDA-4995-A328-978928048E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="1260" windowWidth="22860" windowHeight="14400" xr2:uid="{E740A488-B814-4BD1-828F-576C44F70D46}"/>
+    <workbookView xWindow="6660" yWindow="1080" windowWidth="22860" windowHeight="14400" firstSheet="2" activeTab="5" xr2:uid="{E740A488-B814-4BD1-828F-576C44F70D46}"/>
   </bookViews>
   <sheets>
     <sheet name="Pressão Arterial" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Nível de Atividade" sheetId="4" r:id="rId3"/>
     <sheet name="Fuma" sheetId="6" r:id="rId4"/>
     <sheet name="Idade" sheetId="8" r:id="rId5"/>
+    <sheet name="Pressão Arterial(A)-Colesterol" sheetId="11" r:id="rId6"/>
+    <sheet name="Pressão Arterial(N)-Colesterol" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="47">
   <si>
     <t>Idade</t>
   </si>
@@ -346,7 +348,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -434,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -444,9 +446,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -469,10 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -484,7 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -493,22 +489,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -832,15 +820,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31D95DE-9268-48B4-8793-A51B78ED1E4C}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="24.75" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="7"/>
+    <col min="9" max="9" width="11.5703125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1">
@@ -862,10 +850,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="A2" s="2">
@@ -883,13 +871,13 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <v>5</v>
       </c>
     </row>
@@ -909,13 +897,13 @@
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>1</v>
       </c>
     </row>
@@ -935,13 +923,13 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>4</v>
       </c>
     </row>
@@ -961,13 +949,13 @@
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="11">
         <f>1-((I3/I2)^2+(I4/I2)^2)</f>
         <v>0.31999999999999984</v>
       </c>
@@ -988,7 +976,7 @@
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1008,13 +996,13 @@
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1034,13 +1022,13 @@
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1060,13 +1048,13 @@
       <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1086,13 +1074,13 @@
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="11" t="s">
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="11">
         <f>1-((I8/I7)^2+(I9/I7)^2)</f>
         <v>0.27777777777777768</v>
       </c>
@@ -1113,7 +1101,7 @@
       <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1133,22 +1121,22 @@
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <f>I7+I2</f>
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="24.75" customHeight="1">
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="11">
         <f>I5*I2/I12+I10*(I7/I12)</f>
         <v>0.29696969696969688</v>
       </c>
@@ -1170,14 +1158,14 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C8:C12"/>
+      <selection activeCell="I13" sqref="H1:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="24.75" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="7"/>
+    <col min="9" max="9" width="11.5703125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1">
@@ -1199,10 +1187,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="A2" s="2">
@@ -1220,13 +1208,13 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1246,13 +1234,13 @@
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1272,13 +1260,13 @@
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1298,13 +1286,13 @@
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="11">
         <f>1-((I3/I2)^2+(I4/I2)^2)</f>
         <v>0.44444444444444442</v>
       </c>
@@ -1325,7 +1313,7 @@
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1345,13 +1333,13 @@
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1371,13 +1359,13 @@
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1397,13 +1385,13 @@
       <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1423,13 +1411,13 @@
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="11" t="s">
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="11">
         <f>1-((I8/I7)^2+(I9/I7)^2)</f>
         <v>0.31999999999999984</v>
       </c>
@@ -1450,7 +1438,7 @@
       <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1470,22 +1458,22 @@
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <f>I7+I2</f>
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="24.75" customHeight="1">
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="11">
         <f>I5*I2/I12+I10*(I7/I12)</f>
         <v>0.38787878787878777</v>
       </c>
@@ -1513,7 +1501,7 @@
   <cols>
     <col min="1" max="6" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="7"/>
+    <col min="9" max="9" width="11.5703125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1">
@@ -1535,10 +1523,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="A2" s="2">
@@ -1556,13 +1544,13 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1582,13 +1570,13 @@
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1608,13 +1596,13 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1634,13 +1622,13 @@
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="11">
         <f>1-((I3/I2)^2+(I4/I2)^2)</f>
         <v>0.5</v>
       </c>
@@ -1661,7 +1649,7 @@
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1681,13 +1669,13 @@
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1707,13 +1695,13 @@
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1733,13 +1721,13 @@
       <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1759,13 +1747,13 @@
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="11">
         <f>1-((I8/I7)^2+(I9/I7)^2)</f>
         <v>0.375</v>
       </c>
@@ -1786,7 +1774,7 @@
       <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1806,55 +1794,55 @@
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="24.75" customHeight="1">
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="24.75" customHeight="1">
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="24.75" customHeight="1">
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="11">
         <f>1-((I13/I12)^2+(I14/I12)^2)</f>
         <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="18" spans="8:9" ht="24.75" customHeight="1">
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <f>I7+I2+I12</f>
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="8:9" ht="24.75" customHeight="1">
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="11">
         <f>I5*I2/I18+I10*(I7/I18)+I15*(I12/I18)</f>
         <v>0.43939393939393939</v>
       </c>
@@ -1882,7 +1870,7 @@
   <cols>
     <col min="1" max="6" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="7"/>
+    <col min="9" max="9" width="11.5703125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1">
@@ -1904,10 +1892,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="A2" s="2">
@@ -1925,13 +1913,13 @@
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1951,13 +1939,13 @@
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1977,13 +1965,13 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2003,13 +1991,13 @@
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="11">
         <f>1-((I3/I2)^2+(I4/I2)^2)</f>
         <v>0.44444444444444442</v>
       </c>
@@ -2030,7 +2018,7 @@
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2050,13 +2038,13 @@
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>5</v>
       </c>
     </row>
@@ -2076,13 +2064,13 @@
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2102,13 +2090,13 @@
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>3</v>
       </c>
     </row>
@@ -2128,13 +2116,13 @@
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="11">
         <f>1-((I8/I7)^2+(I9/I7)^2)</f>
         <v>0.48</v>
       </c>
@@ -2155,7 +2143,7 @@
       <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2175,22 +2163,22 @@
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <f>I7+I2</f>
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="24.75" customHeight="1">
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="11">
         <f>I5*I2/I12+I10*(I7/I12)</f>
         <v>0.46060606060606057</v>
       </c>
@@ -2220,11 +2208,11 @@
     <col min="7" max="7" width="4" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="15" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="14" customWidth="1"/>
-    <col min="12" max="13" width="15.28515625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="12" customWidth="1"/>
+    <col min="12" max="13" width="15.28515625" style="14" customWidth="1"/>
     <col min="19" max="19" width="11.5703125" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" style="7"/>
+    <col min="21" max="21" width="11.5703125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="43.5" customHeight="1">
@@ -2250,34 +2238,34 @@
         <v>38</v>
       </c>
       <c r="I1" s="1"/>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="17" t="s">
         <v>46</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2297,51 +2285,51 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <f>(A3+A2)/2</f>
         <v>32.5</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="12">
         <f>COUNTIF(F$2:F2,F$15)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="12">
         <f>COUNTIF(F$2:F2,F$14)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="12">
         <f>COUNTIF(F3:F$12,F$15)</f>
         <v>6</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="12">
         <f>COUNTIF(F3:F$12,F$14)</f>
         <v>4</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="16">
         <f>1-(J2/(J2+K2))^2-(K2/(J2+K2))^2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="16">
         <f>1-(L2/(L2+M2))^2-(M2/(L2+M2))^2</f>
         <v>0.48</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <f>COUNTA(F$2:F2)</f>
         <v>1</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="6">
         <f>COUNTA(F3:F$12)</f>
         <v>10</v>
       </c>
-      <c r="S2" s="17">
+      <c r="S2" s="15">
         <f>P2/U2*N2+Q2/U2*O2</f>
         <v>0.43636363636363634</v>
       </c>
-      <c r="U2" s="7">
-        <f>SUM(J2:M2)</f>
+      <c r="U2" s="6">
+        <f t="shared" ref="U2:U11" si="0">SUM(J2:M2)</f>
         <v>11</v>
       </c>
     </row>
@@ -2361,51 +2349,51 @@
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="7">
-        <f t="shared" ref="H3:H11" si="0">(A4+A3)/2</f>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H11" si="1">(A4+A3)/2</f>
         <v>37.5</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="12">
         <f>COUNTIF(F$2:F3,F$15)</f>
         <v>1</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="12">
         <f>COUNTIF(F$2:F3,F$14)</f>
         <v>1</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="12">
         <f>COUNTIF(F4:F$12,F$15)</f>
         <v>5</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="12">
         <f>COUNTIF(F4:F$12,F$14)</f>
         <v>4</v>
       </c>
-      <c r="N3" s="18">
-        <f t="shared" ref="N3:N11" si="1">1-(J3/(J3+K3))^2-(K3/(J3+K3))^2</f>
+      <c r="N3" s="16">
+        <f t="shared" ref="N3:N11" si="2">1-(J3/(J3+K3))^2-(K3/(J3+K3))^2</f>
         <v>0.5</v>
       </c>
-      <c r="O3" s="18">
-        <f t="shared" ref="O3:O11" si="2">1-(L3/(L3+M3))^2-(M3/(L3+M3))^2</f>
+      <c r="O3" s="16">
+        <f t="shared" ref="O3:O11" si="3">1-(L3/(L3+M3))^2-(M3/(L3+M3))^2</f>
         <v>0.49382716049382713</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="6">
         <f>COUNTA(F$2:F3)</f>
         <v>2</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="6">
         <f>COUNTA(F4:F$12)</f>
         <v>9</v>
       </c>
-      <c r="S3" s="17">
-        <f t="shared" ref="S3:S11" si="3">P3/U3*N3+Q3/U3*O3</f>
+      <c r="S3" s="15">
+        <f t="shared" ref="S3:S11" si="4">P3/U3*N3+Q3/U3*O3</f>
         <v>0.49494949494949492</v>
       </c>
-      <c r="U3" s="7">
-        <f>SUM(J3:M3)</f>
+      <c r="U3" s="6">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -2425,51 +2413,51 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="7">
-        <f t="shared" si="0"/>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="1"/>
         <v>42.5</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="12">
         <f>COUNTIF(F$2:F4,F$15)</f>
         <v>2</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="12">
         <f>COUNTIF(F$2:F4,F$14)</f>
         <v>1</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="12">
         <f>COUNTIF(F5:F$12,F$15)</f>
         <v>4</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="12">
         <f>COUNTIF(F5:F$12,F$14)</f>
         <v>4</v>
       </c>
-      <c r="N4" s="18">
-        <f t="shared" si="1"/>
+      <c r="N4" s="16">
+        <f t="shared" si="2"/>
         <v>0.44444444444444448</v>
       </c>
-      <c r="O4" s="18">
-        <f t="shared" si="2"/>
+      <c r="O4" s="16">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="6">
         <f>COUNTA(F$2:F4)</f>
         <v>3</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="6">
         <f>COUNTA(F5:F$12)</f>
         <v>8</v>
       </c>
-      <c r="S4" s="17">
-        <f t="shared" si="3"/>
+      <c r="S4" s="15">
+        <f t="shared" si="4"/>
         <v>0.48484848484848486</v>
       </c>
-      <c r="U4" s="7">
-        <f>SUM(J4:M4)</f>
+      <c r="U4" s="6">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -2489,51 +2477,51 @@
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="7">
-        <f t="shared" si="0"/>
+      <c r="H5" s="6">
+        <f t="shared" si="1"/>
         <v>47.5</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="12">
         <f>COUNTIF(F$2:F5,F$15)</f>
         <v>2</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="12">
         <f>COUNTIF(F$2:F5,F$14)</f>
         <v>2</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="12">
         <f>COUNTIF(F6:F$12,F$15)</f>
         <v>4</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="12">
         <f>COUNTIF(F6:F$12,F$14)</f>
         <v>3</v>
       </c>
-      <c r="N5" s="18">
-        <f t="shared" si="1"/>
+      <c r="N5" s="16">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="O5" s="18">
-        <f t="shared" si="2"/>
+      <c r="O5" s="16">
+        <f t="shared" si="3"/>
         <v>0.48979591836734704</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="6">
         <f>COUNTA(F$2:F5)</f>
         <v>4</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="6">
         <f>COUNTA(F6:F$12)</f>
         <v>7</v>
       </c>
-      <c r="S5" s="17">
-        <f t="shared" si="3"/>
+      <c r="S5" s="15">
+        <f t="shared" si="4"/>
         <v>0.49350649350649356</v>
       </c>
-      <c r="U5" s="7">
-        <f>SUM(J5:M5)</f>
+      <c r="U5" s="6">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -2553,51 +2541,51 @@
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" si="0"/>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="12">
         <f>COUNTIF(F$2:F6,F$15)</f>
         <v>3</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="12">
         <f>COUNTIF(F$2:F6,F$14)</f>
         <v>2</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="12">
         <f>COUNTIF(F7:F$12,F$15)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="12">
         <f>COUNTIF(F7:F$12,F$14)</f>
         <v>3</v>
       </c>
-      <c r="N6" s="18">
-        <f t="shared" si="1"/>
+      <c r="N6" s="16">
+        <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
-      <c r="O6" s="18">
-        <f t="shared" si="2"/>
+      <c r="O6" s="16">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="6">
         <f>COUNTA(F$2:F6)</f>
         <v>5</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="6">
         <f>COUNTA(F7:F$12)</f>
         <v>6</v>
       </c>
-      <c r="S6" s="17">
-        <f t="shared" si="3"/>
+      <c r="S6" s="15">
+        <f t="shared" si="4"/>
         <v>0.49090909090909085</v>
       </c>
-      <c r="U6" s="7">
-        <f>SUM(J6:M6)</f>
+      <c r="U6" s="6">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -2617,51 +2605,51 @@
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="7">
-        <f t="shared" si="0"/>
+      <c r="H7" s="6">
+        <f t="shared" si="1"/>
         <v>52.5</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="12">
         <f>COUNTIF(F$2:F7,F$15)</f>
         <v>3</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="12">
         <f>COUNTIF(F$2:F7,F$14)</f>
         <v>3</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="12">
         <f>COUNTIF(F8:F$12,F$15)</f>
         <v>3</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="12">
         <f>COUNTIF(F8:F$12,F$14)</f>
         <v>2</v>
       </c>
-      <c r="N7" s="18">
-        <f t="shared" si="1"/>
+      <c r="N7" s="16">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="O7" s="18">
-        <f t="shared" si="2"/>
+      <c r="O7" s="16">
+        <f t="shared" si="3"/>
         <v>0.48</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="6">
         <f>COUNTA(F$2:F7)</f>
         <v>6</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="6">
         <f>COUNTA(F8:F$12)</f>
         <v>5</v>
       </c>
-      <c r="S7" s="17">
-        <f t="shared" si="3"/>
+      <c r="S7" s="15">
+        <f t="shared" si="4"/>
         <v>0.49090909090909085</v>
       </c>
-      <c r="U7" s="7">
-        <f>SUM(J7:M7)</f>
+      <c r="U7" s="6">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -2681,51 +2669,51 @@
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="7">
-        <f t="shared" si="0"/>
+      <c r="H8" s="6">
+        <f t="shared" si="1"/>
         <v>57.5</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="12">
         <f>COUNTIF(F$2:F8,F$15)</f>
         <v>3</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="12">
         <f>COUNTIF(F$2:F8,F$14)</f>
         <v>4</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="12">
         <f>COUNTIF(F9:F$12,F$15)</f>
         <v>3</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="12">
         <f>COUNTIF(F9:F$12,F$14)</f>
         <v>1</v>
       </c>
-      <c r="N8" s="18">
-        <f t="shared" si="1"/>
+      <c r="N8" s="16">
+        <f t="shared" si="2"/>
         <v>0.48979591836734698</v>
       </c>
-      <c r="O8" s="18">
-        <f t="shared" si="2"/>
+      <c r="O8" s="16">
+        <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="6">
         <f>COUNTA(F$2:F8)</f>
         <v>7</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="6">
         <f>COUNTA(F9:F$12)</f>
         <v>4</v>
       </c>
-      <c r="S8" s="17">
-        <f t="shared" si="3"/>
+      <c r="S8" s="15">
+        <f t="shared" si="4"/>
         <v>0.44805194805194809</v>
       </c>
-      <c r="U8" s="7">
-        <f>SUM(J8:M8)</f>
+      <c r="U8" s="6">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -2745,51 +2733,51 @@
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="7">
-        <f t="shared" si="0"/>
+      <c r="H9" s="6">
+        <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="12">
         <f>COUNTIF(F$2:F9,F$15)</f>
         <v>3</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="12">
         <f>COUNTIF(F$2:F9,F$14)</f>
         <v>5</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="12">
         <f>COUNTIF(F10:F$12,F$15)</f>
         <v>3</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="12">
         <f>COUNTIF(F10:F$12,F$14)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="18">
-        <f t="shared" si="1"/>
+      <c r="N9" s="16">
+        <f t="shared" si="2"/>
         <v>0.46875</v>
       </c>
-      <c r="O9" s="18">
-        <f t="shared" si="2"/>
+      <c r="O9" s="16">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="6">
         <f>COUNTA(F$2:F9)</f>
         <v>8</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="6">
         <f>COUNTA(F10:F$12)</f>
         <v>3</v>
       </c>
-      <c r="S9" s="17">
-        <f t="shared" si="3"/>
+      <c r="S9" s="15">
+        <f t="shared" si="4"/>
         <v>0.34090909090909094</v>
       </c>
-      <c r="U9" s="7">
-        <f>SUM(J9:M9)</f>
+      <c r="U9" s="6">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -2809,51 +2797,51 @@
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="7">
-        <f t="shared" si="0"/>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="1"/>
         <v>67.5</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="12">
         <f>COUNTIF(F$2:F10,F$15)</f>
         <v>4</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="12">
         <f>COUNTIF(F$2:F10,F$14)</f>
         <v>5</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="12">
         <f>COUNTIF(F11:F$12,F$15)</f>
         <v>2</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="12">
         <f>COUNTIF(F11:F$12,F$14)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="18">
-        <f t="shared" si="1"/>
+      <c r="N10" s="16">
+        <f t="shared" si="2"/>
         <v>0.49382716049382713</v>
       </c>
-      <c r="O10" s="18">
-        <f t="shared" si="2"/>
+      <c r="O10" s="16">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="6">
         <f>COUNTA(F$2:F10)</f>
         <v>9</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="6">
         <f>COUNTA(F11:F$12)</f>
         <v>2</v>
       </c>
-      <c r="S10" s="17">
-        <f t="shared" si="3"/>
+      <c r="S10" s="15">
+        <f t="shared" si="4"/>
         <v>0.40404040404040403</v>
       </c>
-      <c r="U10" s="7">
-        <f>SUM(J10:M10)</f>
+      <c r="U10" s="6">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -2873,51 +2861,51 @@
       <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="7">
-        <f t="shared" si="0"/>
+      <c r="F11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="12">
         <f>COUNTIF(F$2:F11,F$15)</f>
         <v>5</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="12">
         <f>COUNTIF(F$2:F11,F$14)</f>
         <v>5</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="12">
         <f>COUNTIF(F12:F$12,F$15)</f>
         <v>1</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="12">
         <f>COUNTIF(F12:F$12,F$14)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="18">
-        <f t="shared" si="1"/>
+      <c r="N11" s="16">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="O11" s="18">
-        <f t="shared" si="2"/>
+      <c r="O11" s="16">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="6">
         <f>COUNTA(F$2:F11)</f>
         <v>10</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="6">
         <f>COUNTA(F12:F$12)</f>
         <v>1</v>
       </c>
-      <c r="S11" s="17">
-        <f t="shared" si="3"/>
+      <c r="S11" s="15">
+        <f t="shared" si="4"/>
         <v>0.45454545454545453</v>
       </c>
-      <c r="U11" s="7">
-        <f>SUM(J11:M11)</f>
+      <c r="U11" s="6">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -2937,20 +2925,20 @@
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="14" spans="1:21" ht="24.75" customHeight="1">
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="24.75" customHeight="1">
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2963,4 +2951,460 @@
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473D3ED2-7F34-400A-A2C6-69968394B682}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="24.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A2" s="2">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A3" s="2">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A4" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A5" s="2">
+        <v>65</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="11">
+        <f>1-((H3/H2)^2+(H4/H2)^2)</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A6" s="2">
+        <v>60</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="G7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="G8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="G9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="G10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="11">
+        <f>1-((H8/H7)^2+(H9/H7)^2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="G12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="10">
+        <f>H7+H2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="24.75" customHeight="1">
+      <c r="G13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="11">
+        <f>H5*H2/H12+H10*(H7/H12)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E6">
+    <sortCondition ref="B1:B6"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C58B8E1-E5E9-4416-A2F6-91C611C48036}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="24.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A2" s="2">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A3" s="2">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A4" s="2">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A5" s="2">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="11">
+        <f>1-((H3/H2)^2+(H4/H2)^2)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A6" s="2">
+        <v>75</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A7" s="2">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="24.75" customHeight="1">
+      <c r="G8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="24.75" customHeight="1">
+      <c r="G9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="24.75" customHeight="1">
+      <c r="G10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="11">
+        <f>1-((H8/H7)^2+(H9/H7)^2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="24.75" customHeight="1">
+      <c r="G12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="10">
+        <f>H7+H2</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="24.75" customHeight="1">
+      <c r="G13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="11">
+        <f>H5*H2/H12+H10*(H7/H12)</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>